--- a/data/trans_dic/P1428-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1428-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.08772762752048602</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0769037053214114</v>
+        <v>0.07690370532141139</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.09478921879964007</v>
@@ -697,7 +697,7 @@
         <v>0.07187368034884438</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05283300122095655</v>
+        <v>0.05283300122095656</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03368500487819595</v>
+        <v>0.03561479319811821</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02129255621259631</v>
+        <v>0.02117926201331965</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03260842110049002</v>
+        <v>0.0338286314563273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01577648776884599</v>
+        <v>0.0168206214547084</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09330143539432255</v>
+        <v>0.09398221382266984</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04894979319503343</v>
+        <v>0.05081327543971495</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05839070269071452</v>
+        <v>0.05775518495848017</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05631478790759411</v>
+        <v>0.05709619914420771</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0715434745498275</v>
+        <v>0.07178671947649445</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04123639816180387</v>
+        <v>0.04216916791361307</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05096215674772627</v>
+        <v>0.0509322487773084</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04094727598439826</v>
+        <v>0.04153083410739634</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09100450639848032</v>
+        <v>0.09484044936273447</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08035139964742666</v>
+        <v>0.07557284861482455</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08932214644309489</v>
+        <v>0.08940301484172324</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04906121236009174</v>
+        <v>0.04909925196822557</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1799186423409125</v>
+        <v>0.1778486957189667</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.118615945382319</v>
+        <v>0.1198385574030788</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1287268620896239</v>
+        <v>0.1259973284661655</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1014602875395105</v>
+        <v>0.09766760786942062</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1218617996619418</v>
+        <v>0.1222018067097883</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08294629622013232</v>
+        <v>0.08480261476047293</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09591207240718243</v>
+        <v>0.09625981137232353</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06724537454757804</v>
+        <v>0.06852447074369539</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03061537290113015</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03847995241590296</v>
+        <v>0.03847995241590295</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1835893386816039</v>
@@ -833,7 +833,7 @@
         <v>0.06244418571685374</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06449223275193842</v>
+        <v>0.06449223275193841</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02829573962308266</v>
+        <v>0.02987414506407229</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01572523408181267</v>
+        <v>0.01566932213665796</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01748499251662807</v>
+        <v>0.01752667759851151</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02433387732154507</v>
+        <v>0.02465157833939358</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1525493207549513</v>
+        <v>0.1508860271758756</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06951514693221811</v>
+        <v>0.07027297551244863</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06929007981577902</v>
+        <v>0.06909459010588653</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07231214461024868</v>
+        <v>0.07319748256821629</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09696964557587881</v>
+        <v>0.09589569394113628</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04776512279940454</v>
+        <v>0.04748536602339232</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04902910675515187</v>
+        <v>0.04728334151023647</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05242266842834172</v>
+        <v>0.05292990794260338</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06649107240982481</v>
+        <v>0.06786324384026492</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05005074330368049</v>
+        <v>0.05237146819316059</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04852857754728682</v>
+        <v>0.04823515477145709</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06068278118892321</v>
+        <v>0.06235250760339973</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.221174566143176</v>
+        <v>0.2199014350814626</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1231345551902703</v>
+        <v>0.1233878554722789</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1223834946803758</v>
+        <v>0.1225621179032672</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1114638479079399</v>
+        <v>0.1125782725206365</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1373102924209668</v>
+        <v>0.1368385122509968</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07985947765283651</v>
+        <v>0.07979346049784437</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08193459196051786</v>
+        <v>0.08189403169424378</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07915707616491249</v>
+        <v>0.07852013176254449</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.07829374052295987</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1590818615804188</v>
+        <v>0.1590818615804189</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.112247278510166</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02092178570423795</v>
+        <v>0.02044106419452939</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0464553247768958</v>
+        <v>0.04628847952100998</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02105135263569959</v>
+        <v>0.02282133068750775</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03897164256390117</v>
+        <v>0.03986853807193113</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1453623835021781</v>
+        <v>0.1480038434589732</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1109524599125605</v>
+        <v>0.1091023796413537</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05252973333198407</v>
+        <v>0.05516637772676258</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1311868996747449</v>
+        <v>0.1317937526038122</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08977656282625414</v>
+        <v>0.09035873298058306</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08847369908659011</v>
+        <v>0.08869178301309545</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04434742483066258</v>
+        <v>0.04310974506525483</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09534569675372366</v>
+        <v>0.09469846787026386</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06300606508790953</v>
+        <v>0.06174957995682215</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1089877663921681</v>
+        <v>0.1063191358654213</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06448441574930688</v>
+        <v>0.06395276952352548</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08329802156790918</v>
+        <v>0.08433318291505709</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2309430738280782</v>
+        <v>0.231996906721025</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1869555906815548</v>
+        <v>0.189352960458577</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1097273690933209</v>
+        <v>0.116125674893957</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1907868095054333</v>
+        <v>0.1915107540922684</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1369748828798778</v>
+        <v>0.1395959483319426</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1398373897919391</v>
+        <v>0.1365841092221381</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08010211315848405</v>
+        <v>0.07841979982914089</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1325338638851469</v>
+        <v>0.1320192098911026</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.0864816626291659</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1587561161608972</v>
+        <v>0.1587561161608971</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04356259746225377</v>
+        <v>0.04486332716181106</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02493207778148693</v>
+        <v>0.02662776422616469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02493910730258197</v>
+        <v>0.02402278449752066</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06068734104971332</v>
+        <v>0.05922161279699734</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1371920120569737</v>
+        <v>0.1369716762227556</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08314918956513084</v>
+        <v>0.08368444987770951</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09700131912853335</v>
+        <v>0.09510876732847814</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1913715867194284</v>
+        <v>0.1943032530456905</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09796662353619463</v>
+        <v>0.09810159916272114</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06397489770999243</v>
+        <v>0.0612129109268899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06782003490986041</v>
+        <v>0.06668660843080651</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1354415749374469</v>
+        <v>0.1377130754942945</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09342158623221673</v>
+        <v>0.09785515911381666</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07239754902959562</v>
+        <v>0.07147876948287522</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06866173232393104</v>
+        <v>0.06900692707758425</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1186992244673393</v>
+        <v>0.1165101167212188</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2102935016031409</v>
+        <v>0.2159551767128584</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1490169401042375</v>
+        <v>0.1486372503917219</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1674768939741278</v>
+        <v>0.1643304938059765</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.258422471095819</v>
+        <v>0.2586244388444372</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1455036852217044</v>
+        <v>0.1440096556543209</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1031546914917805</v>
+        <v>0.1012893755236906</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1106034551393236</v>
+        <v>0.1095539649383381</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1807144477341584</v>
+        <v>0.1836562734443333</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.06419213527399155</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1186724724353843</v>
+        <v>0.1186724724353842</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04419112341717776</v>
+        <v>0.04026042578196434</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02545580057950586</v>
+        <v>0.02571055286270453</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01110387097746986</v>
+        <v>0.009576403708023776</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0341274230930113</v>
+        <v>0.03457896718786587</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.147275222980221</v>
+        <v>0.1480014666979721</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1050375975532696</v>
+        <v>0.113594900330525</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06067862226843357</v>
+        <v>0.06183069072155223</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1476676951107265</v>
+        <v>0.146477030604656</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1088898814418671</v>
+        <v>0.1073631181264059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07774134605572695</v>
+        <v>0.07795918003355917</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04328893201645673</v>
+        <v>0.04166718172048189</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09720504185814142</v>
+        <v>0.09977242360893424</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1218233755335743</v>
+        <v>0.1196335734851702</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08849407677144705</v>
+        <v>0.0890833965766908</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06311167722984475</v>
+        <v>0.06126812287105131</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08076945375177311</v>
+        <v>0.08157119099200454</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2639432584040521</v>
+        <v>0.2657889601110444</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2145340522833236</v>
+        <v>0.2188584979484585</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1480376983983007</v>
+        <v>0.1448543664747137</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2123127992909386</v>
+        <v>0.2147798417598347</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1739406169276421</v>
+        <v>0.1784144019314723</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.139833569461381</v>
+        <v>0.1371205697231871</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09058592888519347</v>
+        <v>0.09222048054167273</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1401452322127022</v>
+        <v>0.1385438199470396</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04133296464106245</v>
+        <v>0.0391058938701237</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07971719623646957</v>
+        <v>0.080529123048996</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02242145126110948</v>
+        <v>0.02243143656549438</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06070392031788518</v>
+        <v>0.06318171131086184</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1303239724946014</v>
+        <v>0.1297134944293684</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1600031260671588</v>
+        <v>0.1574188101261808</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.09119033278240445</v>
+        <v>0.09385215109307202</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1545752668368923</v>
+        <v>0.1551394730802597</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09321195042820916</v>
+        <v>0.09498675218665535</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1279973939495428</v>
+        <v>0.1292050629386835</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06445311105820062</v>
+        <v>0.06442873762221787</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1136690189636051</v>
+        <v>0.1155747612642577</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1007140775077227</v>
+        <v>0.09553651824342602</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1552783925341769</v>
+        <v>0.1539254937837451</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07195712656885446</v>
+        <v>0.07213457531378388</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.113286661583204</v>
+        <v>0.1135563718728933</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2206073924912599</v>
+        <v>0.2249081167485169</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.26056563383457</v>
+        <v>0.2534669198822683</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1789791882676406</v>
+        <v>0.1834432286504047</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2187620161436458</v>
+        <v>0.2218390881371232</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1487233616462167</v>
+        <v>0.1466001259033364</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.190416720228867</v>
+        <v>0.1900374618975811</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1150381442829114</v>
+        <v>0.1140688113978122</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1571893146096293</v>
+        <v>0.1583029613817389</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.03648888008915808</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06419156374953208</v>
+        <v>0.06419156374953207</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1471714318236045</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06120538464398975</v>
+        <v>0.06143897468514122</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04132183552780832</v>
+        <v>0.04342802631425546</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02433215153935389</v>
+        <v>0.02406978180357106</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04791068467104603</v>
+        <v>0.04865007349993405</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1212403002108868</v>
+        <v>0.1204818647004001</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1281714673342705</v>
+        <v>0.127908551449173</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06014287478607164</v>
+        <v>0.059938157676668</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1339032055166301</v>
+        <v>0.1363903372205927</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0975757315347978</v>
+        <v>0.09819162994903813</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09302261331456516</v>
+        <v>0.09168212452028987</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04639637832224071</v>
+        <v>0.04681195197236011</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0986168969164975</v>
+        <v>0.09777157413780886</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1044279404199839</v>
+        <v>0.1043284325818883</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08305190968058897</v>
+        <v>0.08454553095862719</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05344159190704732</v>
+        <v>0.05281163433900334</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08308532816791456</v>
+        <v>0.08507181683727105</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1732853365161182</v>
+        <v>0.175450669332307</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1866539784452958</v>
+        <v>0.1862666119201069</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1039717143046204</v>
+        <v>0.1036008951106683</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.180248413686302</v>
+        <v>0.182840436318555</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1330882320432021</v>
+        <v>0.133492135645867</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.128607389453844</v>
+        <v>0.1270163450312953</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.0717315243888666</v>
+        <v>0.07409378283957024</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1296109203738489</v>
+        <v>0.1279444979574627</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08512413017414035</v>
+        <v>0.08795859178580495</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02179232729223887</v>
+        <v>0.02324760081638469</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01581614633995425</v>
+        <v>0.01543079414683171</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02281543926226441</v>
+        <v>0.02179219164880227</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1760722817542625</v>
+        <v>0.177193425032739</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07092659034468518</v>
+        <v>0.07123458967042315</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.0657365887783169</v>
+        <v>0.06399953934756862</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1032302033188612</v>
+        <v>0.1042118552336601</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1383152496596114</v>
+        <v>0.1361426966134829</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.05150500622632596</v>
+        <v>0.05107577157803218</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04469831881706635</v>
+        <v>0.04416351885311593</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.06653591618774461</v>
+        <v>0.06666074692167452</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1299272450224065</v>
+        <v>0.1318085336211959</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04965798477441254</v>
+        <v>0.05003125320059704</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04340372044030979</v>
+        <v>0.04006434377347233</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04534787858405711</v>
+        <v>0.04432650992653071</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2347508037239825</v>
+        <v>0.2373565343716324</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1116844881507187</v>
+        <v>0.1158054238403473</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1065107294708915</v>
+        <v>0.1062983265295654</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1411522952497294</v>
+        <v>0.1390802505900577</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1735142472677266</v>
+        <v>0.1749716886071756</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.07683385091404379</v>
+        <v>0.07610984481086083</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.06873310759212066</v>
+        <v>0.06986483509450347</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08928208831495524</v>
+        <v>0.08867128772333255</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.09368856557978152</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.1438200611620118</v>
+        <v>0.1438200611620119</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.1251718002122634</v>
@@ -1785,7 +1785,7 @@
         <v>0.0654323239974996</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.09939310332200819</v>
+        <v>0.09939310332200822</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.06406954489756009</v>
+        <v>0.06413061285923058</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.04487705761826451</v>
+        <v>0.04449598293492777</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02986940890457046</v>
+        <v>0.02993002666703197</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.04558287234937346</v>
+        <v>0.04643145361170254</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1628775106410049</v>
+        <v>0.1633761469108818</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1132741397368291</v>
+        <v>0.1129019157854907</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.0833759393405461</v>
+        <v>0.08339831635429354</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1349359390395074</v>
+        <v>0.1359005572384633</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1171632283447291</v>
+        <v>0.1178405539583509</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.08166660035326381</v>
+        <v>0.08096680374312565</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.05957044010146354</v>
+        <v>0.05943313376989615</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.09357717831148313</v>
+        <v>0.09388245331345849</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08165505232821464</v>
+        <v>0.08176167258760013</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.06001787289483951</v>
+        <v>0.06050222761378406</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0427852814039725</v>
+        <v>0.04314023014249393</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.05991011374101578</v>
+        <v>0.06023141494921708</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1900033468796852</v>
+        <v>0.1892079933498254</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1356644943123643</v>
+        <v>0.1358439432947194</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1044377925977129</v>
+        <v>0.103953816694014</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1528594655681188</v>
+        <v>0.1544323734455302</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1326341441417195</v>
+        <v>0.1332283780522775</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.09581043492241495</v>
+        <v>0.09561979899922025</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.07193415597012597</v>
+        <v>0.07189207717087452</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1051403342809832</v>
+        <v>0.1054743669754317</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9196</v>
+        <v>9723</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6276</v>
+        <v>6242</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9579</v>
+        <v>9938</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5030</v>
+        <v>5363</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>24337</v>
+        <v>24514</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14061</v>
+        <v>14596</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16858</v>
+        <v>16674</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>17799</v>
+        <v>18046</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>38193</v>
+        <v>38323</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>23999</v>
+        <v>24542</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>29684</v>
+        <v>29666</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>25998</v>
+        <v>26368</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24845</v>
+        <v>25892</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23683</v>
+        <v>22274</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26239</v>
+        <v>26263</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15643</v>
+        <v>15655</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>46930</v>
+        <v>46390</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>34072</v>
+        <v>34423</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>37164</v>
+        <v>36376</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>32068</v>
+        <v>30869</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>65056</v>
+        <v>65237</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>48273</v>
+        <v>49354</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>55865</v>
+        <v>56068</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>42694</v>
+        <v>43507</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13952</v>
+        <v>14730</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7950</v>
+        <v>7921</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8788</v>
+        <v>8808</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12866</v>
+        <v>13034</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>76877</v>
+        <v>76039</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>36410</v>
+        <v>36807</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>36245</v>
+        <v>36142</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>38880</v>
+        <v>39356</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>96681</v>
+        <v>95610</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>49164</v>
+        <v>48876</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>50287</v>
+        <v>48497</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>55904</v>
+        <v>56445</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>32785</v>
+        <v>33462</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25302</v>
+        <v>26475</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24389</v>
+        <v>24242</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>32086</v>
+        <v>32968</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>111461</v>
+        <v>110819</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>64494</v>
+        <v>64626</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>64017</v>
+        <v>64110</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>59931</v>
+        <v>60530</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>136902</v>
+        <v>136431</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>82199</v>
+        <v>82131</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>84037</v>
+        <v>83995</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>84414</v>
+        <v>83735</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6671</v>
+        <v>6518</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15054</v>
+        <v>15000</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6706</v>
+        <v>7270</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12315</v>
+        <v>12598</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>48756</v>
+        <v>49642</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>37837</v>
+        <v>37206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17666</v>
+        <v>18553</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>46679</v>
+        <v>46895</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>58737</v>
+        <v>59118</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>58841</v>
+        <v>58986</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>29042</v>
+        <v>28231</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>64055</v>
+        <v>63620</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20089</v>
+        <v>19689</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35317</v>
+        <v>34452</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20542</v>
+        <v>20373</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26322</v>
+        <v>26649</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>77461</v>
+        <v>77815</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>63756</v>
+        <v>64573</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>36902</v>
+        <v>39054</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>67887</v>
+        <v>68144</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>89617</v>
+        <v>91332</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>93001</v>
+        <v>90837</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>52457</v>
+        <v>51355</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>89039</v>
+        <v>88693</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15625</v>
+        <v>16091</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9324</v>
+        <v>9958</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9227</v>
+        <v>8888</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22645</v>
+        <v>22098</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>50961</v>
+        <v>50879</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>32341</v>
+        <v>32549</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>37567</v>
+        <v>36834</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>80664</v>
+        <v>81900</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>71528</v>
+        <v>71627</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>48809</v>
+        <v>46701</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>51357</v>
+        <v>50498</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>107629</v>
+        <v>109434</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>33508</v>
+        <v>35098</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27075</v>
+        <v>26732</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25402</v>
+        <v>25530</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>44292</v>
+        <v>43475</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>78115</v>
+        <v>80218</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>57960</v>
+        <v>57813</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>64861</v>
+        <v>63642</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>108926</v>
+        <v>109011</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>106236</v>
+        <v>105145</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>78700</v>
+        <v>77277</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>83754</v>
+        <v>82959</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>143605</v>
+        <v>145943</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8984</v>
+        <v>8185</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5412</v>
+        <v>5467</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2345</v>
+        <v>2023</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7019</v>
+        <v>7112</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>30584</v>
+        <v>30735</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>23065</v>
+        <v>24944</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>13264</v>
+        <v>13515</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>33427</v>
+        <v>33158</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>44751</v>
+        <v>44124</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>33601</v>
+        <v>33695</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>18606</v>
+        <v>17909</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>41996</v>
+        <v>43105</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24768</v>
+        <v>24322</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18815</v>
+        <v>18941</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13331</v>
+        <v>12941</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16611</v>
+        <v>16776</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>54813</v>
+        <v>55196</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>47110</v>
+        <v>48059</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>32359</v>
+        <v>31663</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>48061</v>
+        <v>48619</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>71485</v>
+        <v>73324</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>60437</v>
+        <v>59265</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>38935</v>
+        <v>39637</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>60547</v>
+        <v>59856</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11193</v>
+        <v>10590</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>21841</v>
+        <v>22063</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5900</v>
+        <v>5902</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>16433</v>
+        <v>17104</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>36249</v>
+        <v>36079</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>44496</v>
+        <v>43778</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>24905</v>
+        <v>25632</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>40669</v>
+        <v>40817</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>51169</v>
+        <v>52143</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>70664</v>
+        <v>71331</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>34562</v>
+        <v>34549</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>60677</v>
+        <v>61695</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>27274</v>
+        <v>25872</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>42543</v>
+        <v>42173</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18934</v>
+        <v>18980</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>30667</v>
+        <v>30741</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>61361</v>
+        <v>62557</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>72462</v>
+        <v>70488</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>48882</v>
+        <v>50101</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>57556</v>
+        <v>58366</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>81642</v>
+        <v>80477</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>105125</v>
+        <v>104915</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>61688</v>
+        <v>61168</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>83909</v>
+        <v>84503</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>37643</v>
+        <v>37787</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>27388</v>
+        <v>28784</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>15975</v>
+        <v>15803</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>34171</v>
+        <v>34698</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>77378</v>
+        <v>76894</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>88932</v>
+        <v>88750</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>41576</v>
+        <v>41435</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>102727</v>
+        <v>104635</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>122286</v>
+        <v>123058</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>126198</v>
+        <v>124380</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>62535</v>
+        <v>63096</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>145992</v>
+        <v>144741</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>64226</v>
+        <v>64165</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>55046</v>
+        <v>56036</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>35088</v>
+        <v>34674</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>59258</v>
+        <v>60675</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>110594</v>
+        <v>111976</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>129510</v>
+        <v>129242</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>71875</v>
+        <v>71619</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>138282</v>
+        <v>140271</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>166792</v>
+        <v>167298</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>174474</v>
+        <v>172316</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>96683</v>
+        <v>99867</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>191875</v>
+        <v>189408</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>63315</v>
+        <v>65423</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>16978</v>
+        <v>18112</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>12314</v>
+        <v>12014</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>18208</v>
+        <v>17392</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>137955</v>
+        <v>138833</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>58343</v>
+        <v>58596</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>54309</v>
+        <v>52874</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>85744</v>
+        <v>86559</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>211250</v>
+        <v>207932</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>82494</v>
+        <v>81807</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>71730</v>
+        <v>70871</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>108366</v>
+        <v>108569</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>96639</v>
+        <v>98039</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>38688</v>
+        <v>38979</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>33793</v>
+        <v>31193</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>36191</v>
+        <v>35376</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>183930</v>
+        <v>185971</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>91869</v>
+        <v>95259</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>87996</v>
+        <v>87820</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>117242</v>
+        <v>115521</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>265009</v>
+        <v>267235</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>123063</v>
+        <v>121903</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>110299</v>
+        <v>112116</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>145412</v>
+        <v>144417</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>209927</v>
+        <v>210127</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>153784</v>
+        <v>152478</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>101387</v>
+        <v>101593</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>160652</v>
+        <v>163643</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>550395</v>
+        <v>552080</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>402701</v>
+        <v>401377</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>295530</v>
+        <v>295609</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>501734</v>
+        <v>505320</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>779808</v>
+        <v>784316</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>570186</v>
+        <v>565300</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>413353</v>
+        <v>412400</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>677751</v>
+        <v>679962</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>267546</v>
+        <v>267896</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>205668</v>
+        <v>207328</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>145228</v>
+        <v>146433</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>211147</v>
+        <v>212279</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>642059</v>
+        <v>639371</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>482301</v>
+        <v>482939</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>370184</v>
+        <v>368469</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>568379</v>
+        <v>574227</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>882779</v>
+        <v>886734</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>668937</v>
+        <v>667606</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>499143</v>
+        <v>498851</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>761500</v>
+        <v>763919</v>
       </c>
     </row>
     <row r="40">
